--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DotNetDevelop\LinkSX\PyLinkSX_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DB9BD1-94FE-4F0B-AC3B-FA84D42F0C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDE0BB2-FEF1-4781-873A-26551BFD510F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -538,9 +538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -829,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EEAEC5-CC6A-4298-ACED-017D7CFEFD57}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
